--- a/صيدليات دكتور مصطفي طلعت_2026-01-08_17-58.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-08_17-58.xlsx
@@ -92,6 +92,9 @@
     <t>DIASMECT 20% SUSP. 60ML</t>
   </si>
   <si>
+    <t>DIGESTIN 20 TABLETS</t>
+  </si>
+  <si>
     <t>FLACORT 30MG 20 TAB</t>
   </si>
   <si>
@@ -141,6 +144,9 @@
   </si>
   <si>
     <t>1:2</t>
+  </si>
+  <si>
+    <t>ROYAL ZAD</t>
   </si>
   <si>
     <t>SORAL 30 MG 30CAPS</t>
@@ -1100,11 +1106,11 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1120,17 +1126,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1138,7 +1144,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1146,17 +1152,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1178,7 +1184,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
@@ -1204,7 +1210,7 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1224,17 +1230,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1242,7 +1248,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1250,13 +1256,13 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
@@ -1276,17 +1282,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1294,7 +1300,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1302,13 +1308,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
@@ -1328,13 +1334,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>23.039999999999999</v>
+        <v>110</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
@@ -1354,17 +1360,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>23</v>
+        <v>23.039999999999999</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1372,7 +1378,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1380,13 +1386,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>37.600000000000001</v>
+        <v>23</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
@@ -1398,7 +1404,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1406,17 +1412,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>86</v>
+        <v>37.600000000000001</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1424,7 +1430,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1432,17 +1438,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1450,7 +1456,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1458,17 +1464,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1476,7 +1482,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1484,17 +1490,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1502,7 +1508,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1510,13 +1516,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>192</v>
+        <v>31</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1528,7 +1534,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1536,17 +1542,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1554,7 +1560,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1568,7 +1574,7 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1580,7 +1586,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1588,17 +1594,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>-96</v>
+        <v>15</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1614,13 +1620,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>-25</v>
+        <v>168</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1632,7 +1638,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1640,13 +1646,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>25</v>
+        <v>-96</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1658,7 +1664,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1666,13 +1672,13 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>320</v>
+        <v>-25</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1684,7 +1690,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1692,17 +1698,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1710,7 +1716,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1718,13 +1724,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1736,7 +1742,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1744,7 +1750,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
@@ -1754,7 +1760,7 @@
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1770,13 +1776,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1796,13 +1802,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -1810,37 +1816,89 @@
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
-      <c r="K43" s="10">
-        <v>2277.6399999999999</v>
-      </c>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-    </row>
-    <row r="44" ht="17.25" customHeight="1">
-      <c t="s" r="A44" s="11">
+      <c r="A43" s="6">
+        <v>40</v>
+      </c>
+      <c t="s" r="B43" s="7">
+        <v>68</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c t="s" r="H43" s="8">
+        <v>17</v>
+      </c>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="9">
+        <v>30</v>
+      </c>
+      <c r="M43" s="9"/>
+      <c t="s" r="N43" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" ht="24.75" customHeight="1">
+      <c r="A44" s="6">
+        <v>41</v>
+      </c>
+      <c t="s" r="B44" s="7">
         <v>69</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c t="s" r="F44" s="12">
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c t="s" r="H44" s="8">
         <v>70</v>
       </c>
-      <c r="G44" s="12"/>
-      <c r="H44" s="13"/>
-      <c t="s" r="I44" s="14">
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="9">
+        <v>65</v>
+      </c>
+      <c r="M44" s="9"/>
+      <c t="s" r="N44" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" ht="26.25" customHeight="1">
+      <c r="K45" s="10">
+        <v>2439.6399999999999</v>
+      </c>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="11">
         <v>71</v>
       </c>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c t="s" r="F46" s="12">
+        <v>72</v>
+      </c>
+      <c r="G46" s="12"/>
+      <c r="H46" s="13"/>
+      <c t="s" r="I46" s="14">
+        <v>73</v>
+      </c>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="128">
+  <mergeCells count="134">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1965,10 +2023,16 @@
     <mergeCell ref="B42:G42"/>
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="I44:N44"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="I46:N46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
